--- a/Total results (Windows).xlsx
+++ b/Total results (Windows).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\King\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E0D49-EFB8-43D8-A576-A02D0AECD3EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8A840-8E00-4755-A012-84ED0211FEE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36A4AD0E-3F37-430F-B174-8E553E113EAD}"/>
   </bookViews>
@@ -374,34 +374,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$2:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$8</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37518636</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22189588</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4259844</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -471,34 +470,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$2:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$8</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37518636</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22189588</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4259844</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -557,7 +555,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -568,34 +566,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$2:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$2:$B$8</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1211524</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60675148</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98271828</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37518636</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46198804</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22189588</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4259844</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -646,6 +643,107 @@
         <c:smooth val="0"/>
         <c:axId val="583183503"/>
         <c:axId val="511313055"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>name</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3DD6-4433-85BE-00613CFE1BB6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="583183503"/>
@@ -655,9 +753,9 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -693,7 +791,7 @@
         </c:txPr>
         <c:crossAx val="511313055"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -720,8 +818,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -764,7 +862,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -945,23 +1043,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$9:$G$13</c:f>
+              <c:f>Foglio1!$B$9:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1743552</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94250152</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52329064</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30905032</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7208968</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1029,23 +1127,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$9:$G$13</c:f>
+              <c:f>Foglio1!$B$9:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1743552</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94250152</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52329064</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30905032</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7208968</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1101,7 +1199,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1113,23 +1211,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$G$9:$G$13</c:f>
+              <c:f>Foglio1!$B$9:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1743552</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94250152</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52329064</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30905032</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7208968</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,6 +1275,101 @@
         <c:smooth val="0"/>
         <c:axId val="1755775887"/>
         <c:axId val="1726447551"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>name</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$9:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-60E0-4D8B-AEE1-4EC2B39B35CD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1755775887"/>
@@ -1188,7 +1381,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1251,7 +1444,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1295,7 +1488,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1483,34 +1676,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$14:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$14:$B$20</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1212680</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60676304</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46199960</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98272984</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37519792</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22190744</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4261000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1580,34 +1772,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$14:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$14:$B$20</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1212680</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60676304</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46199960</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98272984</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37519792</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22190744</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4261000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1666,7 +1857,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1677,34 +1868,33 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$G$14:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Foglio1!$B$14:$B$20</c:f>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1212680</c:v>
+                  <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60676304</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46199960</c:v>
+                  <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98272984</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37519792</c:v>
+                  <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22190744</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4261000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1755,6 +1945,107 @@
         <c:smooth val="0"/>
         <c:axId val="1552884959"/>
         <c:axId val="1552618463"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>name</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$14:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1D46-40EE-9FD0-DC6836214890}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1552884959"/>
@@ -1766,7 +2057,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1829,7 +2120,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1873,7 +2164,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3581,15 +3872,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3616,16 +3907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3653,15 +3944,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4031,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A704E-F64D-4202-A0F0-6C8958C79E3A}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Total results (Windows).xlsx
+++ b/Total results (Windows).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B8A840-8E00-4755-A012-84ED0211FEE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC08B0C-E794-452C-B48A-2406656402C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36A4AD0E-3F37-430F-B174-8E553E113EAD}"/>
   </bookViews>
@@ -382,10 +382,10 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>apache2.mtx</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>G3_circuit.mtx</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>cfd2.mtx</c:v>
@@ -394,10 +394,10 @@
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>cfd1.mtx</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,10 +412,10 @@
                   <c:v>2774968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2671760416</c:v>
+                  <c:v>27857172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2039944908</c:v>
+                  <c:v>406911040</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>904888848</c:v>
@@ -424,10 +424,10 @@
                   <c:v>435446512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>406911040</c:v>
+                  <c:v>2671760416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27857172</c:v>
+                  <c:v>2039944908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,10 +478,10 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>apache2.mtx</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>G3_circuit.mtx</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>cfd2.mtx</c:v>
@@ -490,10 +490,10 @@
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>cfd1.mtx</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -508,10 +508,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6234</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5673</c:v>
+                  <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2024</c:v>
@@ -520,10 +520,10 @@
                   <c:v>1375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>922</c:v>
+                  <c:v>6234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121</c:v>
+                  <c:v>5673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,10 +574,10 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>apache2.mtx</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>G3_circuit.mtx</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>cfd2.mtx</c:v>
@@ -586,10 +586,10 @@
                   <c:v>parabolic_fem.mtx</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>cfd1.mtx</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
+                  <c:v>G3_circuit.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -604,10 +604,10 @@
                   <c:v>7.9529999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6493300000000002E-6</c:v>
+                  <c:v>2.7971299999999999E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5431100000000001E-7</c:v>
+                  <c:v>1.8825100000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.3119199999999998E-7</c:v>
@@ -616,10 +616,10 @@
                   <c:v>2.35935E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8825100000000001E-7</c:v>
+                  <c:v>7.6493300000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7971299999999999E-11</c:v>
+                  <c:v>7.5431100000000001E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,10 +705,10 @@
                         <c:v>ex15.mtx</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>apache2.mtx</c:v>
+                        <c:v>shallow_water1.mtx</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>G3_circuit.mtx</c:v>
+                        <c:v>cfd1.mtx</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>cfd2.mtx</c:v>
@@ -717,10 +717,10 @@
                         <c:v>parabolic_fem.mtx</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>cfd1.mtx</c:v>
+                        <c:v>apache2.mtx</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>shallow_water1.mtx</c:v>
+                        <c:v>G3_circuit.mtx</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1050,16 +1050,16 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>apache2.mtx</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cfd1.mtx</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>shallow_water1.mtx</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1074,16 +1074,16 @@
                   <c:v>4186000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27490866776</c:v>
+                  <c:v>1268173672</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2498198312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1268173672</c:v>
+                  <c:v>368859400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368859400</c:v>
+                  <c:v>27490866776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,16 +1134,16 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>apache2.mtx</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cfd1.mtx</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>shallow_water1.mtx</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,16 +1158,16 @@
                   <c:v>1.7049229008776801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6462.9462999999996</c:v>
+                  <c:v>235.27328045341699</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>488.37689291880997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.27328045341699</c:v>
+                  <c:v>70.927736612451298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.927736612451298</c:v>
+                  <c:v>6462.9462999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,16 +1218,16 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>apache2.mtx</c:v>
+                  <c:v>cfd1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>cfd2.mtx</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cfd1.mtx</c:v>
+                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>shallow_water1.mtx</c:v>
+                  <c:v>apache2.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1242,16 +1242,16 @@
                   <c:v>8.0432656803459504E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7658714916960408E-12</c:v>
+                  <c:v>2.7351663848831898E-13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.5042951458471295E-13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7351663848831898E-13</c:v>
+                  <c:v>3.2014955050903199E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2014955050903199E-16</c:v>
+                  <c:v>9.7658714916960408E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,16 +1337,16 @@
                         <c:v>ex15.mtx</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>apache2.mtx</c:v>
+                        <c:v>cfd1.mtx</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>cfd2.mtx</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>cfd1.mtx</c:v>
+                        <c:v>shallow_water1.mtx</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>shallow_water1.mtx</c:v>
+                        <c:v>apache2.mtx</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1684,22 +1684,22 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>apache2.mtx</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>parabolic_fem.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>cfd1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1714,22 +1714,22 @@
                   <c:v>2129256</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>27083240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272271128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531015000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335653656</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1639027824</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>335653656</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1754322224</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>531015000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>272271128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27083240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,22 +1780,22 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>apache2.mtx</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>parabolic_fem.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>cfd1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1810,22 +1810,22 @@
                   <c:v>2.00009346008301</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21.0020542144775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.00895881652801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302.016973495483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.01298713684099</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>944.05412673950195</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>232.01298713684099</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1588.0908966064501</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>302.016973495483</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>156.00895881652801</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.0020542144775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,22 +1876,22 @@
                   <c:v>ex15.mtx</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>apache2.mtx</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>parabolic_fem.mtx</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>G3_circuit.mtx</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>cfd2.mtx</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>cfd1.mtx</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>shallow_water1.mtx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1906,22 +1906,22 @@
                   <c:v>7.2985734767509496E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.7905845826963299E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3026412782843E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27750318052995E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3078895379913298E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.7218014336550301E-11</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3078895379913298E-12</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1.2908723645494E-12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.27750318052995E-12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3026412782843E-13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7905845826963299E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2007,22 +2007,22 @@
                         <c:v>ex15.mtx</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>apache2.mtx</c:v>
                       </c:pt>
-                      <c:pt idx="2">
-                        <c:v>parabolic_fem.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="6">
                         <c:v>G3_circuit.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>cfd2.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>cfd1.mtx</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>shallow_water1.mtx</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4322,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A704E-F64D-4202-A0F0-6C8958C79E3A}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,34 +4414,34 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>5554</v>
+        <v>522</v>
       </c>
       <c r="D3" s="1">
-        <v>715176</v>
+        <v>81920</v>
       </c>
       <c r="E3" s="1">
-        <v>715176</v>
+        <v>81920</v>
       </c>
       <c r="F3" s="1">
-        <v>4817870</v>
+        <v>327680</v>
       </c>
       <c r="G3" s="1">
-        <v>60675148</v>
+        <v>4259844</v>
       </c>
       <c r="H3" s="1">
-        <v>1506573</v>
+        <v>3138</v>
       </c>
       <c r="I3" s="3">
-        <v>2671760416</v>
+        <v>27857172</v>
       </c>
       <c r="J3" s="1">
-        <v>6234</v>
+        <v>121</v>
       </c>
       <c r="K3" s="1">
-        <v>7.6493300000000002E-6</v>
+        <v>2.7971299999999999E-11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4449,34 +4449,34 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>10379</v>
+        <v>2251</v>
       </c>
       <c r="D4" s="1">
-        <v>1585478</v>
+        <v>70656</v>
       </c>
       <c r="E4" s="1">
-        <v>1585478</v>
+        <v>70656</v>
       </c>
       <c r="F4" s="1">
-        <v>7660826</v>
+        <v>1825580</v>
       </c>
       <c r="G4" s="1">
-        <v>98271828</v>
+        <v>22189588</v>
       </c>
       <c r="H4" s="1">
-        <v>723252</v>
+        <v>108679</v>
       </c>
       <c r="I4" s="3">
-        <v>2039944908</v>
+        <v>406911040</v>
       </c>
       <c r="J4" s="1">
-        <v>5673</v>
+        <v>922</v>
       </c>
       <c r="K4" s="1">
-        <v>7.5431100000000001E-7</v>
+        <v>1.8825100000000001E-7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4554,34 +4554,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>2251</v>
+        <v>5554</v>
       </c>
       <c r="D7" s="1">
-        <v>70656</v>
+        <v>715176</v>
       </c>
       <c r="E7" s="1">
-        <v>70656</v>
+        <v>715176</v>
       </c>
       <c r="F7" s="1">
-        <v>1825580</v>
+        <v>4817870</v>
       </c>
       <c r="G7" s="1">
-        <v>22189588</v>
+        <v>60675148</v>
       </c>
       <c r="H7" s="1">
-        <v>108679</v>
+        <v>1506573</v>
       </c>
       <c r="I7" s="3">
-        <v>406911040</v>
+        <v>2671760416</v>
       </c>
       <c r="J7" s="1">
-        <v>922</v>
+        <v>6234</v>
       </c>
       <c r="K7" s="1">
-        <v>1.8825100000000001E-7</v>
+        <v>7.6493300000000002E-6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4589,34 +4589,34 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>522</v>
+        <v>10379</v>
       </c>
       <c r="D8" s="1">
-        <v>81920</v>
+        <v>1585478</v>
       </c>
       <c r="E8" s="1">
-        <v>81920</v>
+        <v>1585478</v>
       </c>
       <c r="F8" s="1">
-        <v>327680</v>
+        <v>7660826</v>
       </c>
       <c r="G8" s="1">
-        <v>4259844</v>
+        <v>98271828</v>
       </c>
       <c r="H8" s="1">
-        <v>3138</v>
+        <v>723252</v>
       </c>
       <c r="I8" s="3">
-        <v>27857172</v>
+        <v>2039944908</v>
       </c>
       <c r="J8" s="1">
-        <v>121</v>
+        <v>5673</v>
       </c>
       <c r="K8" s="1">
-        <v>2.7971299999999999E-11</v>
+        <v>7.5431100000000001E-7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4659,34 +4659,34 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>10718.3526</v>
+        <v>2982.1706279671398</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1">
-        <v>105573.3553</v>
+        <v>4778.3424232688703</v>
       </c>
       <c r="I10" s="3">
-        <v>27490866776</v>
+        <v>1268173672</v>
       </c>
       <c r="J10" s="1">
-        <v>6462.9462999999996</v>
+        <v>235.27328045341699</v>
       </c>
       <c r="K10" s="1">
-        <v>9.7658714916960408E-12</v>
+        <v>2.7351663848831898E-13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4729,34 +4729,34 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>2982.1706279671398</v>
+        <v>648.61596611657706</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1">
-        <v>4778.3424232688703</v>
+        <v>4038.6861981883299</v>
       </c>
       <c r="I12" s="3">
-        <v>1268173672</v>
+        <v>368859400</v>
       </c>
       <c r="J12" s="1">
-        <v>235.27328045341699</v>
+        <v>70.927736612451298</v>
       </c>
       <c r="K12" s="1">
-        <v>2.7351663848831898E-13</v>
+        <v>3.2014955050903199E-16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4764,34 +4764,34 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>648.61596611657706</v>
+        <v>10718.3526</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1">
-        <v>4038.6861981883299</v>
+        <v>105573.3553</v>
       </c>
       <c r="I13" s="3">
-        <v>368859400</v>
+        <v>27490866776</v>
       </c>
       <c r="J13" s="1">
-        <v>70.927736612451298</v>
+        <v>6462.9462999999996</v>
       </c>
       <c r="K13" s="1">
-        <v>3.2014955050903199E-16</v>
+        <v>9.7658714916960408E-12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4834,34 +4834,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>18770.073580741901</v>
+        <v>14126.808166503901</v>
       </c>
       <c r="D15" s="1">
-        <v>715176</v>
+        <v>81920</v>
       </c>
       <c r="E15" s="1">
-        <v>715176</v>
+        <v>81920</v>
       </c>
       <c r="F15" s="1">
-        <v>4817870</v>
+        <v>327680</v>
       </c>
       <c r="G15" s="1">
-        <v>60676304</v>
+        <v>4261000</v>
       </c>
       <c r="H15" s="1">
-        <v>1436.7488304773999</v>
+        <v>863.04903030395496</v>
       </c>
       <c r="I15" s="3">
-        <v>1639027824</v>
+        <v>27083240</v>
       </c>
       <c r="J15" s="1">
-        <v>944.05412673950195</v>
+        <v>21.0020542144775</v>
       </c>
       <c r="K15" s="1">
-        <v>1.7218014336550301E-11</v>
+        <v>2.7905845826963299E-16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4869,34 +4869,34 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>9556.51326576869</v>
+        <v>10784.6159934998</v>
       </c>
       <c r="D16" s="1">
-        <v>525825</v>
+        <v>70656</v>
       </c>
       <c r="E16" s="1">
-        <v>525825</v>
+        <v>70656</v>
       </c>
       <c r="F16" s="1">
-        <v>3674625</v>
+        <v>1825580</v>
       </c>
       <c r="G16" s="1">
-        <v>46199960</v>
+        <v>22190744</v>
       </c>
       <c r="H16" s="1">
-        <v>6461.3699913024902</v>
+        <v>6194.3540573120099</v>
       </c>
       <c r="I16" s="3">
-        <v>335653656</v>
+        <v>272271128</v>
       </c>
       <c r="J16" s="1">
-        <v>232.01298713684099</v>
+        <v>156.00895881652801</v>
       </c>
       <c r="K16" s="1">
-        <v>2.3078895379913298E-12</v>
+        <v>1.3026412782843E-13</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4904,34 +4904,34 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>1912.9160794946899</v>
+        <v>31837.820768356301</v>
       </c>
       <c r="D17" s="1">
-        <v>1585478</v>
+        <v>123440</v>
       </c>
       <c r="E17" s="1">
-        <v>1585478</v>
+        <v>123440</v>
       </c>
       <c r="F17" s="1">
-        <v>7660826</v>
+        <v>3085406</v>
       </c>
       <c r="G17" s="1">
-        <v>98272984</v>
+        <v>37519792</v>
       </c>
       <c r="H17" s="1">
-        <v>1310.60828367869</v>
+        <v>17436.996936798099</v>
       </c>
       <c r="I17" s="3">
-        <v>1754322224</v>
+        <v>531015000</v>
       </c>
       <c r="J17" s="1">
-        <v>1588.0908966064501</v>
+        <v>302.016973495483</v>
       </c>
       <c r="K17" s="1">
-        <v>1.2908723645494E-12</v>
+        <v>1.27750318052995E-12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4939,34 +4939,34 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>31837.820768356301</v>
+        <v>9556.51326576869</v>
       </c>
       <c r="D18" s="1">
-        <v>123440</v>
+        <v>525825</v>
       </c>
       <c r="E18" s="1">
-        <v>123440</v>
+        <v>525825</v>
       </c>
       <c r="F18" s="1">
-        <v>3085406</v>
+        <v>3674625</v>
       </c>
       <c r="G18" s="1">
-        <v>37519792</v>
+        <v>46199960</v>
       </c>
       <c r="H18" s="1">
-        <v>17436.996936798099</v>
+        <v>6461.3699913024902</v>
       </c>
       <c r="I18" s="3">
-        <v>531015000</v>
+        <v>335653656</v>
       </c>
       <c r="J18" s="1">
-        <v>302.016973495483</v>
+        <v>232.01298713684099</v>
       </c>
       <c r="K18" s="1">
-        <v>1.27750318052995E-12</v>
+        <v>2.3078895379913298E-12</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4974,34 +4974,34 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>10784.6159934998</v>
+        <v>18770.073580741901</v>
       </c>
       <c r="D19" s="1">
-        <v>70656</v>
+        <v>715176</v>
       </c>
       <c r="E19" s="1">
-        <v>70656</v>
+        <v>715176</v>
       </c>
       <c r="F19" s="1">
-        <v>1825580</v>
+        <v>4817870</v>
       </c>
       <c r="G19" s="1">
-        <v>22190744</v>
+        <v>60676304</v>
       </c>
       <c r="H19" s="1">
-        <v>6194.3540573120099</v>
+        <v>1436.7488304773999</v>
       </c>
       <c r="I19" s="3">
-        <v>272271128</v>
+        <v>1639027824</v>
       </c>
       <c r="J19" s="1">
-        <v>156.00895881652801</v>
+        <v>944.05412673950195</v>
       </c>
       <c r="K19" s="1">
-        <v>1.3026412782843E-13</v>
+        <v>1.7218014336550301E-11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5009,34 +5009,34 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>14126.808166503901</v>
+        <v>1912.9160794946899</v>
       </c>
       <c r="D20" s="1">
-        <v>81920</v>
+        <v>1585478</v>
       </c>
       <c r="E20" s="1">
-        <v>81920</v>
+        <v>1585478</v>
       </c>
       <c r="F20" s="1">
-        <v>327680</v>
+        <v>7660826</v>
       </c>
       <c r="G20" s="1">
-        <v>4261000</v>
+        <v>98272984</v>
       </c>
       <c r="H20" s="1">
-        <v>863.04903030395496</v>
+        <v>1310.60828367869</v>
       </c>
       <c r="I20" s="3">
-        <v>27083240</v>
+        <v>1754322224</v>
       </c>
       <c r="J20" s="1">
-        <v>21.0020542144775</v>
+        <v>1588.0908966064501</v>
       </c>
       <c r="K20" s="1">
-        <v>2.7905845826963299E-16</v>
+        <v>1.2908723645494E-12</v>
       </c>
     </row>
   </sheetData>
